--- a/publico_fb.xlsx
+++ b/publico_fb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t xml:space="preserve">Edad</t>
   </si>
@@ -37,106 +37,42 @@
     <t xml:space="preserve">18-24</t>
   </si>
   <si>
-    <t xml:space="preserve">1,3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,1%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Facebook</t>
   </si>
   <si>
     <t xml:space="preserve">25-34</t>
   </si>
   <si>
-    <t xml:space="preserve">4,7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7%</t>
-  </si>
-  <si>
     <t xml:space="preserve">35-44</t>
   </si>
   <si>
-    <t xml:space="preserve">10,5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,8%</t>
-  </si>
-  <si>
     <t xml:space="preserve">45-54</t>
   </si>
   <si>
-    <t xml:space="preserve">11,4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,5%</t>
-  </si>
-  <si>
     <t xml:space="preserve">55-64</t>
   </si>
   <si>
-    <t xml:space="preserve">5,4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,3%</t>
-  </si>
-  <si>
     <t xml:space="preserve">65+</t>
   </si>
   <si>
-    <t xml:space="preserve">2,5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Instagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -196,12 +132,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,15 +165,15 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -254,168 +194,168 @@
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2.1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>14.8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>19.5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>14.3</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>6.5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
+      <c r="B8" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>22.3</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>8.4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>3.9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1.3</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
